--- a/medicine/Mort/Mort_de_Mohamed_Bendriss/Mort_de_Mohamed_Bendriss.xlsx
+++ b/medicine/Mort/Mort_de_Mohamed_Bendriss/Mort_de_Mohamed_Bendriss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La mort de Mohamed Bendriss est celle d'un homme de 27 ans, tué à Marseille par la police dans la nuit du 1er au 2 juillet 2023. 
@@ -512,9 +524,11 @@
           <t>Déroulement des faits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'évènement se déroule à Marseille[1] pendant la troisième nuit des émeutes consécutives à la mort de Nahel Merzouk, tué par un policier à Nanterre[2]. Mohamed Bendriss, un Marseillais de 27 ans circule à scooter, et décède en bas du cours Lieutaud vers une heure du matin le 2 juillet. Son corps est marqué de tirs de LBD[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'évènement se déroule à Marseille pendant la troisième nuit des émeutes consécutives à la mort de Nahel Merzouk, tué par un policier à Nanterre. Mohamed Bendriss, un Marseillais de 27 ans circule à scooter, et décède en bas du cours Lieutaud vers une heure du matin le 2 juillet. Son corps est marqué de tirs de LBD.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Suites judiciaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les enquêteurs de l'IGPN récupèrent la  vidéo d’une témoin, filmée dans la rue de Rome. Les comptes rendus de son audition montrent que les enquêteurs de l’IGPN ont demandé à cette témoin de ne pas évoquer l’implication du Raid dans l’affaire[3]. 
-Trois policiers du RAID sont mis en examen pour homicide involontaire. L’un dément avoir fait tiré, les deux autres invoquent la légitime défense[4],[5].
-Des vidéos montrent le moment où le Raid tire sur Mohamed Bendriss, à 1h du matin: son scooter remontait une colonne de véhicules, dans une rue calme ; il roulait à distance des policiers au moment où il est touché. Ces images contredisent la version des policiers selon laquelle il aurait forcé un barrage[6].
-Trois agents de la même unité du RAID sont impliqués, et deux d'entre eux mis en examen[7], dans une autre affaire, les blessures au visage de Abdelkarim Y., cousin germain de Mohamed Bendriss, dans la nuit du 30 juin au 1er juillet[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les enquêteurs de l'IGPN récupèrent la  vidéo d’une témoin, filmée dans la rue de Rome. Les comptes rendus de son audition montrent que les enquêteurs de l’IGPN ont demandé à cette témoin de ne pas évoquer l’implication du Raid dans l’affaire. 
+Trois policiers du RAID sont mis en examen pour homicide involontaire. L’un dément avoir fait tiré, les deux autres invoquent la légitime défense,.
+Des vidéos montrent le moment où le Raid tire sur Mohamed Bendriss, à 1h du matin: son scooter remontait une colonne de véhicules, dans une rue calme ; il roulait à distance des policiers au moment où il est touché. Ces images contredisent la version des policiers selon laquelle il aurait forcé un barrage.
+Trois agents de la même unité du RAID sont impliqués, et deux d'entre eux mis en examen, dans une autre affaire, les blessures au visage de Abdelkarim Y., cousin germain de Mohamed Bendriss, dans la nuit du 30 juin au 1er juillet.
 </t>
         </is>
       </c>
